--- a/biology/Botanique/Collines-rhodaniennes/Collines-rhodaniennes.xlsx
+++ b/biology/Botanique/Collines-rhodaniennes/Collines-rhodaniennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le collines-rhodaniennes, appelé vin de pays des collines rhodaniennes jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone qui couvre l'arrière-pays des côtes du Rhône septentrionaux, entre les coteaux du Gier sud de la région lyonnaise et le Diois.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,29 +552,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se situe sur certains cantons du sud du Rhône, de la Loire, de l'Isère dite rhodanienne, du nord de la Drôme ainsi que du nord de l'Ardèche.
-Zone de production
-Les communes de l'Ardèche
-96 communes sont concernées dans l'Ardèche :
-Alboussière, Andance, Annonay, Ardoix, Arlebosc, Arras-sur-Rhône, Beauchastel, Bogy, Bozas, Boucieu-le-Roi, Boulieu-lès-Annonay, Brossainc, Champagne, Champis, Charmes-sur-Rhône, Charnas, Châteaubourg, Cheminas, Colombier-le-Cardinal, Colombier-le-Jeune, Colombier-le-Vieux, Cornas, Coux, Le Crestet, Davézieux, Désaignes, Dunière-sur-Eyrieux, Eclassan, Empurany, Étables, Félines, Flaviac, Gilhac-et-Bruzac, Gilhoc-sur-Ormèze, Glun, Guilherand-Granges, Lafarre, Lalouvesc, Lamastre, Lemps, Limony, Mauves, Monestier, Les Ollières-sur-Eyrieux, Ozon, Pailharès, Peaugres, Peyraud, Plats, Préaux, Quintenas, Roiffieux, Rompon, Saint-Alban-d'Ay, Saint-Barthélemy-le-Plain, Saint-Cierge-la-Serre, Saint-Clair, Saint-Cyr, Saint-Désirat, Saint-Étienne-de-Valoux, Saint-Félicien, Saint-Fortunat-sur-Eyrieux, Saint-Georges-les-Bains, Saint-Jacques-d'Atticieux, Saint-Jean-de-Muzols, Saint-Jeure-d'Ay, Saint-Julien-Vocance, Saint-Laurent-du-Pape, Saint-Marcel-lès-Annonay, Saint-Michel-de-Chabrillanoux, Saint-Péray, Saint-Pierre-sur-Doux, Saint-Romain-d'Ay, Saint-Romain-de-Lerps, Saint-Sylvestre, Saint-Symphorien-de-Mahun, Saint-Victor, Saint-Vincent-de-Durfort, Sarras, Satillieu, Savas, Sécheras, Serrières, Soyons, Talencieux, Thorrenc, Toulaud, Tournon-sur-Rhône, Vanosc, Vaudevant, Vernosc-lès-Annonay, Villevocance, Vinzieux, Vion, Vocance, La Voulte-sur-Rhône.
-Les communes de la Drôme
-123 communes sont concernées dans la Drôme :
-Aix-en-Diois, Albon, Alixan, Allex, Andancette, Anneyron, Aouste-sur-Sye, Arthémonay, Aubenasson, Aurel, La Répara-Auriples, Autichamp, Barcelonne, Barnave, Barsac, Bathernay, Beaufort-sur-Gervanne, Beaumont-Monteux, Beausemblant, Bésayes, Bren, Chabeuil, Chabrillan, Le Chalon, Chamaloc, Chanos-Curson, Chantemerle-les-Blés, Charmes-sur-l'Herbasse, Chastel-Arnaud, Châteaudouble, Châteauneuf-de-Galaure, Châteauneuf-sur-Isère, Châtillon-en-Diois, Châtillon-Saint-Jean, Chatuzange-le-Goubet, Chavannes, Claveyson, Clérieux, Crépol, Crest, Crozes-Hermitage, Die, Divajeu, Érôme, Espenel, Eurre, Fay-le-Clos, Francillon-sur-Roubion, Génissieux, Gervans, Geyssans, Grane, Granges-les-Beaumont, Larnage, Laval-d'Aix, Laveyron, Luc-en-Diois, Malissard, Margès, Marignac-en-Diois, Marsaz, Menglon, Mercurol, Mirabel-et-Blacons, Miribel, Molières-Glandaz, Montchenu, Montclar-sur-Gervanne, Montélier, Montlaur-en-Diois, Montmaur-en-Diois, Montmeyran, Montmiral, Montoison, Montvendre, La Motte-de-Galaure, Mours-Saint-Eusèbe, Mureils, Parnans, Peyrins, Piégros-la-Clastre, Ponet-et-Saint-Auban, Ponsas, Pontaix, Pont-de-l'Isère, Poyols, Puy-Saint-Martin, Ratières, Recoubeau-Jansac, La Roche-de-Glun, La Roche-sur-Grane, Romans-sur-Isère, Romeyer, Saillans, Saint-Andéol, Saint-Avit, Saint-Bardoux, Saint-Barthélemy-de-Vals, Saint-Benoit-en-Diois, Saint-Bonnet-de-Valclérieux, Sainte-Croix, Saint-Donat-sur-l'Herbasse, Saint-Julien-en-Quint, Saint-Laurent-d'Onay, Saint-Martin-d'Août, Saint-Michel-sur-Savasse, Saint-Paul-lès-Romans, Saint-Rambert-d'Albon, Saint-Roman, Saint-Sauveur-en-Diois, Saint-Uze, Saint-Vallier, Saou, Serves-sur-Rhône, Soyans, Suze, Tain-l'Hermitage, Triors, Upie, Vachères-en-Quint, Valence, Veaunes, Vercheny.
-Les communes de l'Isère
-40 communes sont concernées dans l'Isère :
-Agnin, Anjou, Assieu, Auberives-sur-Varèze, Bougé-Chambalud, Chanas, La Chapelle-de-Surieu, Chasse-sur-Rhône, Cheyssieu, Chonas-l'Amballan, Chuzelles, Clonas-sur-Varèze, Les Côtes-d'Arey, Estrablin, Eyzin-Pinet, Jardin, Luzinay, Moidieu-Détourbe, Le Péage-de-Roussillon, Pont-Évêque, Reventin-Vaugris, Les Roches-de-Condrieu, Roussillon, Sablons, Saint-Alban-du-Rhône, Saint-Clair-du-Rhône, Saint-Lattier, Saint-Maurice-l'Exil, Saint-Prim, Saint-Romain-de-Surieu, Saint-Sorlin-de-Vienne, Salaise-sur-Sanne, Septème, Serpaize, Seyssuel, Sonnay, Vernioz, Vienne, Ville-sous-Anjou, Villette-de-Vienne.
-Les communes de la Loire
-22 communes sont concernées dans la Loire :
-Bessey, Cellieu, Chagnon, La Chapelle-Villars, Châteauneuf, Chavanay, Chuyer, Dargoire, Lupé, Maclas, Malleval, Pélussin, Roisey, Saint-Appolinard, Genilac, Saint-Joseph, Saint-Martin-la-Plaine, Saint-Michel-sur-Rhône, Saint-Pierre-de-Bœuf, Tartaras, Véranne, Vérin.
-Les communes du Rhône
-17 communes sont concernées dans le Rhône :
-Ampuis, Condrieu, Échalas, Les Haies, Loire-sur-Rhône, Longes, Rontalon, Soucieu-en-Jarrest, Sainte-Colombe, Saint-Cyr-sur-le-Rhône, Saint-Didier-sous-Riverie, Saint-Jean-de-Touslas, Saint-Maurice-sur-Dargoire, Saint-Romain-en-Gal, Saint-Sorlin, Trèves, Tupin-et-Semons.
-Sols
-Les sols qui prédominent sont les granites, roches leptynites, anatexites et gneiss. Le point commun des sols de la zone comprenant quartz, mica blanc et noir, est leur fort pouvoir d'accumulation de la chaleur, qui favorise la maturation des raisins[4].
-Climat
-Le climat est tempéré océanique sous double influence continentale et méditerranéenne.
 </t>
         </is>
       </c>
@@ -586,24 +582,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette labellisation est parfois utilisée volontairement par les viticulteurs des Côtes du Rhône septentrionales pour produire des vins différant des critères de l'AOC.
-Les différents vins
-Il existe neuf labellisations différentes :
-Collines Rhodaniennes blanc[5]
-Collines Rhodaniennes blanc Mousseux[6]
-Collines Rhodaniennes primeur ou nouveau blanc[7]
-Collines Rhodaniennes primeur ou nouveau rosé[8]
-Collines Rhodaniennes primeur ou nouveau rouge[9]
-Collines Rhodaniennes rosé[10]
-Collines Rhodaniennes rosé Mousseux[11]
-Collines Rhodaniennes rouge[12]
-Collines Rhodaniennes rouge Mousseux[13]
-Les vins rouges représentent 65 % de la production, les blancs 25 %[2].
+          <t>Zone de production</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les communes de l'Ardèche</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">96 communes sont concernées dans l'Ardèche :
+Alboussière, Andance, Annonay, Ardoix, Arlebosc, Arras-sur-Rhône, Beauchastel, Bogy, Bozas, Boucieu-le-Roi, Boulieu-lès-Annonay, Brossainc, Champagne, Champis, Charmes-sur-Rhône, Charnas, Châteaubourg, Cheminas, Colombier-le-Cardinal, Colombier-le-Jeune, Colombier-le-Vieux, Cornas, Coux, Le Crestet, Davézieux, Désaignes, Dunière-sur-Eyrieux, Eclassan, Empurany, Étables, Félines, Flaviac, Gilhac-et-Bruzac, Gilhoc-sur-Ormèze, Glun, Guilherand-Granges, Lafarre, Lalouvesc, Lamastre, Lemps, Limony, Mauves, Monestier, Les Ollières-sur-Eyrieux, Ozon, Pailharès, Peaugres, Peyraud, Plats, Préaux, Quintenas, Roiffieux, Rompon, Saint-Alban-d'Ay, Saint-Barthélemy-le-Plain, Saint-Cierge-la-Serre, Saint-Clair, Saint-Cyr, Saint-Désirat, Saint-Étienne-de-Valoux, Saint-Félicien, Saint-Fortunat-sur-Eyrieux, Saint-Georges-les-Bains, Saint-Jacques-d'Atticieux, Saint-Jean-de-Muzols, Saint-Jeure-d'Ay, Saint-Julien-Vocance, Saint-Laurent-du-Pape, Saint-Marcel-lès-Annonay, Saint-Michel-de-Chabrillanoux, Saint-Péray, Saint-Pierre-sur-Doux, Saint-Romain-d'Ay, Saint-Romain-de-Lerps, Saint-Sylvestre, Saint-Symphorien-de-Mahun, Saint-Victor, Saint-Vincent-de-Durfort, Sarras, Satillieu, Savas, Sécheras, Serrières, Soyons, Talencieux, Thorrenc, Toulaud, Tournon-sur-Rhône, Vanosc, Vaudevant, Vernosc-lès-Annonay, Villevocance, Vinzieux, Vion, Vocance, La Voulte-sur-Rhône.
 </t>
         </is>
       </c>
@@ -629,13 +624,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Méthodes culturales et réglementaires</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation de barriques d'acacia par exemple, vin de type paille en dehors de l'appellation hermitage, production de vin avec des sucres résiduels. 
-C'est aussi le label d'une partie non classée du vignoble septentrional rennaissant : le vignoble de Seyssuel.
+          <t>Zone de production</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les communes de la Drôme</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123 communes sont concernées dans la Drôme :
+Aix-en-Diois, Albon, Alixan, Allex, Andancette, Anneyron, Aouste-sur-Sye, Arthémonay, Aubenasson, Aurel, La Répara-Auriples, Autichamp, Barcelonne, Barnave, Barsac, Bathernay, Beaufort-sur-Gervanne, Beaumont-Monteux, Beausemblant, Bésayes, Bren, Chabeuil, Chabrillan, Le Chalon, Chamaloc, Chanos-Curson, Chantemerle-les-Blés, Charmes-sur-l'Herbasse, Chastel-Arnaud, Châteaudouble, Châteauneuf-de-Galaure, Châteauneuf-sur-Isère, Châtillon-en-Diois, Châtillon-Saint-Jean, Chatuzange-le-Goubet, Chavannes, Claveyson, Clérieux, Crépol, Crest, Crozes-Hermitage, Die, Divajeu, Érôme, Espenel, Eurre, Fay-le-Clos, Francillon-sur-Roubion, Génissieux, Gervans, Geyssans, Grane, Granges-les-Beaumont, Larnage, Laval-d'Aix, Laveyron, Luc-en-Diois, Malissard, Margès, Marignac-en-Diois, Marsaz, Menglon, Mercurol, Mirabel-et-Blacons, Miribel, Molières-Glandaz, Montchenu, Montclar-sur-Gervanne, Montélier, Montlaur-en-Diois, Montmaur-en-Diois, Montmeyran, Montmiral, Montoison, Montvendre, La Motte-de-Galaure, Mours-Saint-Eusèbe, Mureils, Parnans, Peyrins, Piégros-la-Clastre, Ponet-et-Saint-Auban, Ponsas, Pontaix, Pont-de-l'Isère, Poyols, Puy-Saint-Martin, Ratières, Recoubeau-Jansac, La Roche-de-Glun, La Roche-sur-Grane, Romans-sur-Isère, Romeyer, Saillans, Saint-Andéol, Saint-Avit, Saint-Bardoux, Saint-Barthélemy-de-Vals, Saint-Benoit-en-Diois, Saint-Bonnet-de-Valclérieux, Sainte-Croix, Saint-Donat-sur-l'Herbasse, Saint-Julien-en-Quint, Saint-Laurent-d'Onay, Saint-Martin-d'Août, Saint-Michel-sur-Savasse, Saint-Paul-lès-Romans, Saint-Rambert-d'Albon, Saint-Roman, Saint-Sauveur-en-Diois, Saint-Uze, Saint-Vallier, Saou, Serves-sur-Rhône, Soyans, Suze, Tain-l'Hermitage, Triors, Upie, Vachères-en-Quint, Valence, Veaunes, Vercheny.
 </t>
         </is>
       </c>
@@ -661,13 +666,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Encépagement</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vins rouges et rosés : syrah, merlot, gamay 
-Vins blancs : viognier, marsanne, roussanne, chardonnay, aligoté.
+          <t>Zone de production</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les communes de l'Isère</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40 communes sont concernées dans l'Isère :
+Agnin, Anjou, Assieu, Auberives-sur-Varèze, Bougé-Chambalud, Chanas, La Chapelle-de-Surieu, Chasse-sur-Rhône, Cheyssieu, Chonas-l'Amballan, Chuzelles, Clonas-sur-Varèze, Les Côtes-d'Arey, Estrablin, Eyzin-Pinet, Jardin, Luzinay, Moidieu-Détourbe, Le Péage-de-Roussillon, Pont-Évêque, Reventin-Vaugris, Les Roches-de-Condrieu, Roussillon, Sablons, Saint-Alban-du-Rhône, Saint-Clair-du-Rhône, Saint-Lattier, Saint-Maurice-l'Exil, Saint-Prim, Saint-Romain-de-Surieu, Saint-Sorlin-de-Vienne, Salaise-sur-Sanne, Septème, Serpaize, Seyssuel, Sonnay, Vernioz, Vienne, Ville-sous-Anjou, Villette-de-Vienne.
 </t>
         </is>
       </c>
@@ -693,10 +708,318 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Zone de production</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les communes de la Loire</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 communes sont concernées dans la Loire :
+Bessey, Cellieu, Chagnon, La Chapelle-Villars, Châteauneuf, Chavanay, Chuyer, Dargoire, Lupé, Maclas, Malleval, Pélussin, Roisey, Saint-Appolinard, Genilac, Saint-Joseph, Saint-Martin-la-Plaine, Saint-Michel-sur-Rhône, Saint-Pierre-de-Bœuf, Tartaras, Véranne, Vérin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Zone de production</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les communes du Rhône</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 communes sont concernées dans le Rhône :
+Ampuis, Condrieu, Échalas, Les Haies, Loire-sur-Rhône, Longes, Rontalon, Soucieu-en-Jarrest, Sainte-Colombe, Saint-Cyr-sur-le-Rhône, Saint-Didier-sous-Riverie, Saint-Jean-de-Touslas, Saint-Maurice-sur-Dargoire, Saint-Romain-en-Gal, Saint-Sorlin, Trèves, Tupin-et-Semons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sols</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols qui prédominent sont les granites, roches leptynites, anatexites et gneiss. Le point commun des sols de la zone comprenant quartz, mica blanc et noir, est leur fort pouvoir d'accumulation de la chaleur, qui favorise la maturation des raisins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat est tempéré océanique sous double influence continentale et méditerranéenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette labellisation est parfois utilisée volontairement par les viticulteurs des Côtes du Rhône septentrionales pour produire des vins différant des critères de l'AOC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les différents vins</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe neuf labellisations différentes :
+Collines Rhodaniennes blanc
+Collines Rhodaniennes blanc Mousseux
+Collines Rhodaniennes primeur ou nouveau blanc
+Collines Rhodaniennes primeur ou nouveau rosé
+Collines Rhodaniennes primeur ou nouveau rouge
+Collines Rhodaniennes rosé
+Collines Rhodaniennes rosé Mousseux
+Collines Rhodaniennes rouge
+Collines Rhodaniennes rouge Mousseux
+Les vins rouges représentent 65 % de la production, les blancs 25 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisation de barriques d'acacia par exemple, vin de type paille en dehors de l'appellation hermitage, production de vin avec des sucres résiduels. 
+C'est aussi le label d'une partie non classée du vignoble septentrional rennaissant : le vignoble de Seyssuel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vins rouges et rosés : syrah, merlot, gamay 
+Vins blancs : viognier, marsanne, roussanne, chardonnay, aligoté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Types de vin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			IGP collines-rhodaniennes, Domaine Niero
@@ -705,31 +1028,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Collines-rhodaniennes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collines-rhodaniennes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Vin et gastronomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
